--- a/biology/Zoologie/Balaenotus/Balaenotus.xlsx
+++ b/biology/Zoologie/Balaenotus/Balaenotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balaenotus est un genre éteint de cétacés dont les espèces ont vécu pendant le Cénozoïque, lors du Quaternaire et du Néogène.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Balaenotus a été créé en 1872 par le zoologiste belge Pierre-Joseph Van Beneden (1809-1894) avec pour espèce type Balaenotus insignis[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Balaenotus a été créé en 1872 par le zoologiste belge Pierre-Joseph Van Beneden (1809-1894) avec pour espèce type Balaenotus insignis,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses restes fossiles ont été mis au jour en Belgique puis en Europe et aux États-Unis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses restes fossiles ont été mis au jour en Belgique puis en Europe et aux États-Unis.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (18 avril 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (18 avril 2021) :
 †Balaenotus insignis Van Beneden, 1872
 †Balaenotus lawleyi Capellini, 1876
 †Balaenotus orcianensis Pilleri, 1987</t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>P.-J. van Beneden, « Les Baleines fossiles d'Anvers », Bulletins de l'Académie royale des sciences, des lettres et des beaux-arts de Belgique, vol. 34,‎ 1872, p. 6-23 (ISSN 0770-7509, OCLC 472187722, lire en ligne)</t>
         </is>
